--- a/results/example2/mcmc_summary.xlsx
+++ b/results/example2/mcmc_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Run_Index</t>
   </si>
@@ -428,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,6 +814,333 @@
         <v>0.001</v>
       </c>
     </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1.984147416992253</v>
+      </c>
+      <c r="G8">
+        <v>1.094185742614283</v>
+      </c>
+      <c r="H8">
+        <v>-4.054140384558921E+18</v>
+      </c>
+      <c r="I8">
+        <v>-0.4196813310094601</v>
+      </c>
+      <c r="J8">
+        <v>0.1037613926518594</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>4.348552697956077</v>
+      </c>
+      <c r="M8">
+        <v>0.05776494112419462</v>
+      </c>
+      <c r="N8">
+        <v>1.047036280321465</v>
+      </c>
+      <c r="O8">
+        <v>4501</v>
+      </c>
+      <c r="P8">
+        <v>50000</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>277</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.02728044638051733</v>
+      </c>
+      <c r="G9">
+        <v>0.1218393006309193</v>
+      </c>
+      <c r="H9">
+        <v>1919392285086128</v>
+      </c>
+      <c r="I9">
+        <v>1.981140093966673</v>
+      </c>
+      <c r="J9">
+        <v>0.3443625851306916</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.4724485237261105</v>
+      </c>
+      <c r="M9">
+        <v>0.941124194623417</v>
+      </c>
+      <c r="N9">
+        <v>1.047036280321465</v>
+      </c>
+      <c r="O9">
+        <v>4501</v>
+      </c>
+      <c r="P9">
+        <v>50000</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1.35636303285016</v>
+      </c>
+      <c r="G10">
+        <v>0.0884353397009327</v>
+      </c>
+      <c r="H10">
+        <v>1.192394230752624E+18</v>
+      </c>
+      <c r="I10">
+        <v>0.1002633741811969</v>
+      </c>
+      <c r="J10">
+        <v>0.009326608762688406</v>
+      </c>
+      <c r="K10">
+        <v>1.183656053444713</v>
+      </c>
+      <c r="L10">
+        <v>1.537357355969161</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.047036280321465</v>
+      </c>
+      <c r="O10">
+        <v>4501</v>
+      </c>
+      <c r="P10">
+        <v>50000</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.322248709008332</v>
+      </c>
+      <c r="G11">
+        <v>0.3016152184436793</v>
+      </c>
+      <c r="H11">
+        <v>1.689225160232883E+18</v>
+      </c>
+      <c r="I11">
+        <v>-1.731494958368718</v>
+      </c>
+      <c r="J11">
+        <v>0.5647020392356592</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1.614184578823112</v>
+      </c>
+      <c r="M11">
+        <v>0.04287936014219063</v>
+      </c>
+      <c r="N11">
+        <v>1.325190999290214</v>
+      </c>
+      <c r="O11">
+        <v>4501</v>
+      </c>
+      <c r="P11">
+        <v>50000</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>0.01174165124139144</v>
+      </c>
+      <c r="G12">
+        <v>0.05555521182835848</v>
+      </c>
+      <c r="H12">
+        <v>2129275412058256</v>
+      </c>
+      <c r="I12">
+        <v>1.883987746387548</v>
+      </c>
+      <c r="J12">
+        <v>0.6297939731774923</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.270295874176763</v>
+      </c>
+      <c r="M12">
+        <v>0.9568984670073317</v>
+      </c>
+      <c r="N12">
+        <v>1.325190999290214</v>
+      </c>
+      <c r="O12">
+        <v>4501</v>
+      </c>
+      <c r="P12">
+        <v>50000</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1.325190999290214</v>
+      </c>
+      <c r="O13">
+        <v>4501</v>
+      </c>
+      <c r="P13">
+        <v>50000</v>
+      </c>
+      <c r="Q13">
+        <v>100</v>
+      </c>
+      <c r="R13">
+        <v>0.001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/example2/mcmc_summary.xlsx
+++ b/results/example2/mcmc_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Run_Index</t>
   </si>
@@ -428,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,40 +507,40 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2.135255120746385</v>
+        <v>1.47259416711036</v>
       </c>
       <c r="G2">
-        <v>1.03643340850361</v>
+        <v>0.7867125220771155</v>
       </c>
       <c r="H2">
-        <v>3.529320907982678E+17</v>
+        <v>8.813348662084609E+17</v>
       </c>
       <c r="I2">
-        <v>5.15522094152491</v>
+        <v>-0.1755315622476343</v>
       </c>
       <c r="J2">
-        <v>0.7545776230905785</v>
+        <v>0.04781587423881974</v>
       </c>
       <c r="K2">
-        <v>0.5815195520883394</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.372047022058421</v>
+        <v>3.194396198173292</v>
       </c>
       <c r="M2">
-        <v>0.001701403658017865</v>
+        <v>0.05665407687180626</v>
       </c>
       <c r="N2">
-        <v>1.189504519109641</v>
+        <v>0.4900860349035478</v>
       </c>
       <c r="O2">
-        <v>2351</v>
+        <v>4501</v>
       </c>
       <c r="P2">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R2">
         <v>0.001</v>
@@ -563,40 +563,40 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.00189607164439057</v>
+        <v>0.01942398631621396</v>
       </c>
       <c r="G3">
-        <v>0.0382272235925504</v>
+        <v>0.08820638176163498</v>
       </c>
       <c r="H3">
-        <v>7.728439944487618E+16</v>
+        <v>4708094744581257</v>
       </c>
       <c r="I3">
-        <v>1.222930555181412</v>
+        <v>0.2073391557130288</v>
       </c>
       <c r="J3">
-        <v>0.4471381290440251</v>
+        <v>0.1259469282842464</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3462144095887336</v>
       </c>
       <c r="M3">
-        <v>0.9965971926839643</v>
+        <v>0.9429015774272383</v>
       </c>
       <c r="N3">
-        <v>1.189504519109641</v>
+        <v>0.4900860349035478</v>
       </c>
       <c r="O3">
-        <v>2351</v>
+        <v>4501</v>
       </c>
       <c r="P3">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R3">
         <v>0.001</v>
@@ -619,40 +619,40 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1.355124227156763</v>
+        <v>0.8716965176765114</v>
       </c>
       <c r="G4">
-        <v>0.09020453134009861</v>
+        <v>0.05724231955582187</v>
       </c>
       <c r="H4">
-        <v>1.323495340493505E+18</v>
+        <v>5.067675480698651E+18</v>
       </c>
       <c r="I4">
-        <v>0.8586596087976537</v>
+        <v>0.8303335024226564</v>
       </c>
       <c r="J4">
-        <v>0.7065703079715302</v>
+        <v>0.05205880543530137</v>
       </c>
       <c r="K4">
-        <v>1.179731226346048</v>
+        <v>0.7631502742403773</v>
       </c>
       <c r="L4">
-        <v>1.541430535112572</v>
+        <v>0.98891309297559</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.189504519109641</v>
+        <v>0.4900860349035478</v>
       </c>
       <c r="O4">
-        <v>2351</v>
+        <v>4501</v>
       </c>
       <c r="P4">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R4">
         <v>0.001</v>
@@ -675,40 +675,40 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.382585970485771</v>
+        <v>0.4880466956323097</v>
       </c>
       <c r="G5">
-        <v>0.1257084751136845</v>
+        <v>0.04043939891834355</v>
       </c>
       <c r="H5">
-        <v>1.323495340493505E+18</v>
+        <v>1.01353509613973E+19</v>
       </c>
       <c r="I5">
-        <v>2.625097972435386</v>
+        <v>-0.7452256534481526</v>
       </c>
       <c r="J5">
-        <v>0.6932811587133955</v>
+        <v>0.01691976792737519</v>
       </c>
       <c r="K5">
-        <v>1.173032619697186</v>
+        <v>0.4096287341311123</v>
       </c>
       <c r="L5">
-        <v>1.635798275569822</v>
+        <v>0.5704230434822282</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.386167354792632</v>
+        <v>0.4981862875648189</v>
       </c>
       <c r="O5">
-        <v>2351</v>
+        <v>4501</v>
       </c>
       <c r="P5">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R5">
         <v>0.001</v>
@@ -731,16 +731,10 @@
         <v>0.1</v>
       </c>
       <c r="F6">
-        <v>0.000421037820617955</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.009120110718984361</v>
-      </c>
-      <c r="H6">
-        <v>-3.077896140682569E+16</v>
-      </c>
-      <c r="J6">
-        <v>0.7995728359954932</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -749,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9978732454274777</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1.386167354792632</v>
+        <v>0.4981862875648189</v>
       </c>
       <c r="O6">
-        <v>2351</v>
+        <v>4501</v>
       </c>
       <c r="P6">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R6">
         <v>0.001</v>
@@ -799,345 +793,18 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>1.386167354792632</v>
+        <v>0.4981862875648189</v>
       </c>
       <c r="O7">
-        <v>2351</v>
+        <v>4501</v>
       </c>
       <c r="P7">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="R7">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>277</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1.984147416992253</v>
-      </c>
-      <c r="G8">
-        <v>1.094185742614283</v>
-      </c>
-      <c r="H8">
-        <v>-4.054140384558921E+18</v>
-      </c>
-      <c r="I8">
-        <v>-0.4196813310094601</v>
-      </c>
-      <c r="J8">
-        <v>0.1037613926518594</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>4.348552697956077</v>
-      </c>
-      <c r="M8">
-        <v>0.05776494112419462</v>
-      </c>
-      <c r="N8">
-        <v>1.047036280321465</v>
-      </c>
-      <c r="O8">
-        <v>4501</v>
-      </c>
-      <c r="P8">
-        <v>50000</v>
-      </c>
-      <c r="Q8">
-        <v>100</v>
-      </c>
-      <c r="R8">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>277</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.02728044638051733</v>
-      </c>
-      <c r="G9">
-        <v>0.1218393006309193</v>
-      </c>
-      <c r="H9">
-        <v>1919392285086128</v>
-      </c>
-      <c r="I9">
-        <v>1.981140093966673</v>
-      </c>
-      <c r="J9">
-        <v>0.3443625851306916</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.4724485237261105</v>
-      </c>
-      <c r="M9">
-        <v>0.941124194623417</v>
-      </c>
-      <c r="N9">
-        <v>1.047036280321465</v>
-      </c>
-      <c r="O9">
-        <v>4501</v>
-      </c>
-      <c r="P9">
-        <v>50000</v>
-      </c>
-      <c r="Q9">
-        <v>100</v>
-      </c>
-      <c r="R9">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>277</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1.35636303285016</v>
-      </c>
-      <c r="G10">
-        <v>0.0884353397009327</v>
-      </c>
-      <c r="H10">
-        <v>1.192394230752624E+18</v>
-      </c>
-      <c r="I10">
-        <v>0.1002633741811969</v>
-      </c>
-      <c r="J10">
-        <v>0.009326608762688406</v>
-      </c>
-      <c r="K10">
-        <v>1.183656053444713</v>
-      </c>
-      <c r="L10">
-        <v>1.537357355969161</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1.047036280321465</v>
-      </c>
-      <c r="O10">
-        <v>4501</v>
-      </c>
-      <c r="P10">
-        <v>50000</v>
-      </c>
-      <c r="Q10">
-        <v>100</v>
-      </c>
-      <c r="R10">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>146</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1.322248709008332</v>
-      </c>
-      <c r="G11">
-        <v>0.3016152184436793</v>
-      </c>
-      <c r="H11">
-        <v>1.689225160232883E+18</v>
-      </c>
-      <c r="I11">
-        <v>-1.731494958368718</v>
-      </c>
-      <c r="J11">
-        <v>0.5647020392356592</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1.614184578823112</v>
-      </c>
-      <c r="M11">
-        <v>0.04287936014219063</v>
-      </c>
-      <c r="N11">
-        <v>1.325190999290214</v>
-      </c>
-      <c r="O11">
-        <v>4501</v>
-      </c>
-      <c r="P11">
-        <v>50000</v>
-      </c>
-      <c r="Q11">
-        <v>100</v>
-      </c>
-      <c r="R11">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>146</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0.1</v>
-      </c>
-      <c r="F12">
-        <v>0.01174165124139144</v>
-      </c>
-      <c r="G12">
-        <v>0.05555521182835848</v>
-      </c>
-      <c r="H12">
-        <v>2129275412058256</v>
-      </c>
-      <c r="I12">
-        <v>1.883987746387548</v>
-      </c>
-      <c r="J12">
-        <v>0.6297939731774923</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0.270295874176763</v>
-      </c>
-      <c r="M12">
-        <v>0.9568984670073317</v>
-      </c>
-      <c r="N12">
-        <v>1.325190999290214</v>
-      </c>
-      <c r="O12">
-        <v>4501</v>
-      </c>
-      <c r="P12">
-        <v>50000</v>
-      </c>
-      <c r="Q12">
-        <v>100</v>
-      </c>
-      <c r="R12">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1.325190999290214</v>
-      </c>
-      <c r="O13">
-        <v>4501</v>
-      </c>
-      <c r="P13">
-        <v>50000</v>
-      </c>
-      <c r="Q13">
-        <v>100</v>
-      </c>
-      <c r="R13">
         <v>0.001</v>
       </c>
     </row>
